--- a/非受控文档/01-黄叶轩/任务分工/[PRD-15]第七周分工.xlsx
+++ b/非受控文档/01-黄叶轩/任务分工/[PRD-15]第七周分工.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>【完善翻转PPT】完善基础二翻转PPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,86 +133,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>【需求工程计划文档】风险管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险评估里加上对应的风险类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑风险控制要超级细化（现实点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈苏民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【需求工程计划PPT负责人】审核整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【需求工程计划PPT】引言到支持条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【需求工程计划PPT】人力资源到后面所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合审核完之后把一些新的也加一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【可行性分析报告文档负责人】审核修改完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【需求工程计划文档负责人】整合审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈苏民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责你自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐双铅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【强调】↓【强调】↓【强调】↓【强调】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为yc也会每个字审核过去</t>
+  </si>
+  <si>
+    <t>文档里每个字都要看过去，改过去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做完的任务自己再审核一遍再上交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【访谈准备】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄叶轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>【需求工程计划文档】成本管理计划和采购管理计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【需求工程计划文档】风险管理计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险评估里加上对应的风险类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>↑风险控制要超级细化（现实点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈苏民</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【需求工程计划PPT负责人】审核整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【需求工程计划PPT】引言到支持条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【需求工程计划PPT】人力资源到后面所有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合审核完之后把一些新的也加一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【可行性分析报告文档负责人】审核修改完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【需求工程计划文档负责人】整合审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈苏民</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责你自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐双铅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【强调】↓【强调】↓【强调】↓【强调】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为yc也会每个字审核过去</t>
-  </si>
-  <si>
-    <t>文档里每个字都要看过去，改过去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己做完的任务自己再审核一遍再上交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【访谈准备】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄叶轩</t>
+    <t>【需求工程计划文档】配置系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈俊仁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +286,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -311,6 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -591,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -613,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -621,13 +636,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -641,7 +656,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -652,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -669,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -683,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -691,13 +706,13 @@
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -705,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -716,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -724,7 +739,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -743,7 +758,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
@@ -754,63 +769,71 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
     </row>
